--- a/债无虑pc前端页面清单.xlsx
+++ b/债无虑pc前端页面清单.xlsx
@@ -284,8 +284,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -313,9 +313,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,13 +347,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -351,8 +365,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,7 +436,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,67 +449,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -489,49 +489,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,127 +663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,21 +729,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -753,11 +738,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,21 +764,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,6 +788,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -832,10 +832,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -844,34 +844,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -880,97 +877,100 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1558,8 +1558,8 @@
   <sheetPr/>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2104,7 +2104,7 @@
         <v>15</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E32" s="4">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E33" s="4">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E34" s="4">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E35" s="4">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="3" t="s">
         <v>70</v>
       </c>
       <c r="E36" s="4">

--- a/债无虑pc前端页面清单.xlsx
+++ b/债无虑pc前端页面清单.xlsx
@@ -284,10 +284,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -307,67 +307,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,24 +328,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,10 +350,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -436,7 +374,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,8 +441,16 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,7 +477,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,181 +657,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,6 +723,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -770,15 +788,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -788,26 +797,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,149 +826,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -996,7 +990,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1376,7 +1369,7 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
@@ -1558,8 +1551,8 @@
   <sheetPr/>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2184,7 +2177,7 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="3" t="s">
         <v>71</v>
       </c>
       <c r="E37" s="4">
@@ -2204,7 +2197,7 @@
       <c r="C38" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="11" t="s">
         <v>73</v>
       </c>
       <c r="E38" s="4">
@@ -2288,7 +2281,7 @@
       <c r="C43" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="11" t="s">
         <v>80</v>
       </c>
       <c r="E43" s="4">
@@ -2336,7 +2329,7 @@
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C46" s="2" t="s">
